--- a/data/siRNA_bench/Eurofinsgenomics_siRNA_PAX3_jbst.xlsx
+++ b/data/siRNA_bench/Eurofinsgenomics_siRNA_PAX3_jbst.xlsx
@@ -523,12 +523,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>RNAi_2</t>
+          <t>RNAi_3</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TACAACACATTGTTGTTGG</t>
+          <t>TTCTTCTCCACGTCAGGCG</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -553,7 +553,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['TACAACACATTGTTGTTGG']</t>
+          <t>['TTCTTCTCCACGTCAGGCG']</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -579,7 +579,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>CCAACAACAATGTGTTGTA</t>
+          <t>CGCCTGACGTGGAGAAGAA</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -594,18 +594,18 @@
         <v>6</v>
       </c>
       <c r="Q2" t="n">
-        <v>24.05</v>
+        <v>57.89</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>RNAi_1</t>
+          <t>RNAi_5</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>TATCAGAGCCTTCATCTGA</t>
+          <t>TCTTCCTCTTCTCCACTGC</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -630,7 +630,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['TATCAGAGCCTTCATCTGA']</t>
+          <t>['TCTTCCTCTTCTCCACTGC']</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -656,7 +656,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>TCAGATGAAGGCTCTGATA</t>
+          <t>GCAGTGGAGAAGAGGAAGA</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -671,18 +671,18 @@
         <v>3</v>
       </c>
       <c r="Q3" t="n">
-        <v>20.79</v>
+        <v>52.63</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>RNAi_4</t>
+          <t>RNAi_6</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TGTTCTGCTGTGAAGGTGG</t>
+          <t>TGTTCTAGCTCCTCGATGA</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -707,7 +707,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['TGTTCTGCTGTGAAGGTGG']</t>
+          <t>['TGTTCTAGCTCCTCGATGA']</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -733,7 +733,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>CCACCTTCACAGCAGAACA</t>
+          <t>TCATCGAGGAGCTAGAACA</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -745,21 +745,21 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q4" t="n">
-        <v>44.11</v>
+        <v>47.37</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>RNAi_5</t>
+          <t>RNAi_9</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TCTTCCTCTTCTCCACTGC</t>
+          <t>TTCCTCTTCTCCACTGCTT</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -784,7 +784,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['TCTTCCTCTTCTCCACTGC']</t>
+          <t>['TTCCTCTTCTCCACTGCTT']</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -810,7 +810,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>GCAGTGGAGAAGAGGAAGA</t>
+          <t>AAGCAGTGGAGAAGAGGAA</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -822,21 +822,21 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>14.26</v>
+        <v>47.37</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>RNAi_9</t>
+          <t>RNAi_2</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TTCCTCTTCTCCACTGCTT</t>
+          <t>TACAACACATTGTTGTTGG</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -861,7 +861,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['TTCCTCTTCTCCACTGCTT']</t>
+          <t>['TACAACACATTGTTGTTGG']</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -879,15 +879,15 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('ACAACA', 'TGTTGT')]</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>AAGCAGTGGAGAAGAGGAA</t>
+          <t>CCAACAACAATGTGTTGTA</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -899,21 +899,21 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Q6" t="n">
-        <v>13.26</v>
+        <v>36.84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>RNAi_10</t>
+          <t>RNAi_1</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>GTCAAGGATTCCTCCATTC</t>
+          <t>TATCAGAGCCTTCATCTGA</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -938,7 +938,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['GTCAAGGATTCCTCCATTC']</t>
+          <t>['TATCAGAGCCTTCATCTGA']</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -956,15 +956,15 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('TCAGA', 'AGTCT')]</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>GAATGGAGGAATCCTTGAC</t>
+          <t>TCAGATGAAGGCTCTGATA</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -976,21 +976,21 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Q7" t="n">
-        <v>21.79</v>
+        <v>42.11</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>RNAi_3</t>
+          <t>RNAi_4</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>TTCTTCTCCACGTCAGGCG</t>
+          <t>TGTTCTGCTGTGAAGGTGG</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1015,7 +1015,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['TTCTTCTCCACGTCAGGCG']</t>
+          <t>['TGTTCTGCTGTGAAGGTGG']</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -1033,15 +1033,15 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>['ACGT']</t>
+          <t>[('TTC', 'AAG')]</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>0.2105263157894737</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>CGCCTGACGTGGAGAAGAA</t>
+          <t>CCACCTTCACAGCAGAACA</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -1053,21 +1053,21 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Q8" t="n">
-        <v>28.05</v>
+        <v>52.63</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>RNAi_8</t>
+          <t>RNAi_10</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CATGTGAACACTTCTGTTC</t>
+          <t>GTCAAGGATTCCTCCATTC</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1092,7 +1092,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['CATGTGAACACTTCTGTTC']</t>
+          <t>['GTCAAGGATTCCTCCATTC']</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -1110,15 +1110,15 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>['CATG']</t>
+          <t>[('AGGA', 'TCCT')]</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>0.2105263157894737</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>GAACAGAAGTGTTCACATG</t>
+          <t>GAATGGAGGAATCCTTGAC</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -1130,21 +1130,21 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Q9" t="n">
-        <v>20.79</v>
+        <v>47.37</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>RNAi_6</t>
+          <t>RNAi_7</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TGTTCTAGCTCCTCGATGA</t>
+          <t>TATGTGAATGCATGTCACT</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1169,7 +1169,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['TGTTCTAGCTCCTCGATGA']</t>
+          <t>['TATGTGAATGCATGTCACT']</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -1187,15 +1187,15 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>['AGCT', 'CTAG', 'TCGA']</t>
+          <t>[('GTGA', 'CACT'), ('ATG', 'TAC')]</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>0.631578947368421</v>
+        <v>0.2105263157894737</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>TCATCGAGGAGCTAGAACA</t>
+          <t>AGTGACATGCATTCACATA</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -1207,21 +1207,21 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q10" t="n">
-        <v>26.05</v>
+        <v>36.84</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>RNAi_7</t>
+          <t>RNAi_8</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>TATGTGAATGCATGTCACT</t>
+          <t>CATGTGAACACTTCTGTTC</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1246,7 +1246,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['TATGTGAATGCATGTCACT']</t>
+          <t>['CATGTGAACACTTCTGTTC']</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -1264,15 +1264,15 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>['CATG', 'TGCA', 'ATGCAT']</t>
+          <t>[('GAACA', 'CTTGT'), ('TGT', 'ACA'), ('GTG', 'CAC')]</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>0.7368421052631579</v>
+        <v>0.3157894736842105</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>AGTGACATGCATTCACATA</t>
+          <t>GAACAGAAGTGTTCACATG</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -1284,10 +1284,10 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q11" t="n">
-        <v>24.05</v>
+        <v>42.11</v>
       </c>
     </row>
   </sheetData>
